--- a/DATA_goal/Junction_Flooding_91.xlsx
+++ b/DATA_goal/Junction_Flooding_91.xlsx
@@ -469,13 +469,13 @@
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41523.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.12</v>
+        <v>0.41</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>4.74</v>
+        <v>0.47</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>10.76</v>
+        <v>1.08</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>10.13</v>
+        <v>1.01</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.01</v>
+        <v>0.5</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>10.66</v>
+        <v>1.07</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>7.46</v>
+        <v>0.75</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.88</v>
+        <v>0.29</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.31</v>
+        <v>0.63</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.42</v>
+        <v>0.64</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.27</v>
+        <v>0.43</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.09</v>
+        <v>0.11</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.87</v>
+        <v>0.39</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.53</v>
+        <v>0.65</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>3.07</v>
+        <v>0.31</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.01</v>
+        <v>0.1</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>62.79</v>
+        <v>6.28</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>12.62</v>
+        <v>1.26</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.8</v>
+        <v>0.38</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>7.34</v>
+        <v>0.73</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>5.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>7.99</v>
+        <v>0.8</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.11</v>
+        <v>0.41</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.43</v>
+        <v>0.54</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>4.67</v>
+        <v>0.47</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.81</v>
+        <v>0.68</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>8.99</v>
+        <v>0.9</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.07</v>
+        <v>0.21</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.38</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41523.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>12.32</v>
+        <v>1.23</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>10.03</v>
+        <v>1</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>27.81</v>
+        <v>2.78</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>23.54</v>
+        <v>2.35</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>10.53</v>
+        <v>1.05</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>35.71</v>
+        <v>3.57</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>16.25</v>
+        <v>1.63</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.13</v>
+        <v>0.71</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>11.51</v>
+        <v>1.15</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>12.19</v>
+        <v>1.22</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>11.78</v>
+        <v>1.18</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.08</v>
+        <v>0.31</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9.880000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>14.82</v>
+        <v>1.48</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.369999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>150.25</v>
+        <v>15.03</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>28.92</v>
+        <v>2.89</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>9.23</v>
+        <v>0.92</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>19.07</v>
+        <v>1.91</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>10.75</v>
+        <v>1.07</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.35</v>
+        <v>0.14</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>19.35</v>
+        <v>1.94</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.57</v>
+        <v>0.86</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>8.43</v>
+        <v>0.84</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>9.08</v>
+        <v>0.91</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>12.84</v>
+        <v>1.28</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>32.39</v>
+        <v>3.24</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.33</v>
+        <v>0.53</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>11.97</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41523.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>18.49</v>
+        <v>1.85</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>14.4</v>
+        <v>1.44</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>40.92</v>
+        <v>4.09</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>34.18</v>
+        <v>3.42</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>15.1</v>
+        <v>1.51</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>56.62</v>
+        <v>5.66</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>23.31</v>
+        <v>2.33</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>10.37</v>
+        <v>1.04</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>16.02</v>
+        <v>1.6</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>17.11</v>
+        <v>1.71</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>17.38</v>
+        <v>1.74</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.63</v>
+        <v>0.46</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>14.6</v>
+        <v>1.46</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>21.41</v>
+        <v>2.14</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>12.29</v>
+        <v>1.23</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>220.21</v>
+        <v>22.02</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>41.82</v>
+        <v>4.18</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>13.54</v>
+        <v>1.35</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>28.01</v>
+        <v>2.8</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>15.15</v>
+        <v>1.51</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.96</v>
+        <v>0.2</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>28.72</v>
+        <v>2.87</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>12.26</v>
+        <v>1.23</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>11.37</v>
+        <v>1.14</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>12.82</v>
+        <v>1.28</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>17.99</v>
+        <v>1.8</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>51.48</v>
+        <v>5.15</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.81</v>
+        <v>0.78</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>17.27</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41523.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.42</v>
+        <v>0.24</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.26</v>
+        <v>0.23</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.09</v>
+        <v>0.11</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>11.95</v>
+        <v>1.2</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.75</v>
+        <v>0.18</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.45</v>
+        <v>0.15</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.49</v>
+        <v>0.15</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.04</v>
+        <v>0.1</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.74</v>
+        <v>0.17</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>8.69</v>
+        <v>0.87</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.54</v>
+        <v>0.35</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.75</v>
+        <v>0.08</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.39</v>
+        <v>0.24</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.41</v>
+        <v>0.14</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>5.86</v>
+        <v>0.59</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.05</v>
+        <v>0.11</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.57</v>
+        <v>0.16</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>11.53</v>
+        <v>1.15</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.23</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41523.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>20.75</v>
+        <v>2.08</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>15.89</v>
+        <v>1.59</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>45.58</v>
+        <v>4.56</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>37.89</v>
+        <v>3.79</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>16.65</v>
+        <v>1.67</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>59.44</v>
+        <v>5.94</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>25.7</v>
+        <v>2.57</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>11.48</v>
+        <v>1.15</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>17.46</v>
+        <v>1.75</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>18.71</v>
+        <v>1.87</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>19.37</v>
+        <v>1.94</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>5.19</v>
+        <v>0.52</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>16.31</v>
+        <v>1.63</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>23.64</v>
+        <v>2.36</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>13.66</v>
+        <v>1.37</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>244.32</v>
+        <v>24.43</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>46.11</v>
+        <v>4.61</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>15.08</v>
+        <v>1.51</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>31.06</v>
+        <v>3.11</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>16.59</v>
+        <v>1.66</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>2.17</v>
+        <v>0.22</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>30.06</v>
+        <v>3.01</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>13.51</v>
+        <v>1.35</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>12.23</v>
+        <v>1.22</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>14.06</v>
+        <v>1.41</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>19.67</v>
+        <v>1.97</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>53.63</v>
+        <v>5.36</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>8.68</v>
+        <v>0.87</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>19.09</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41523.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>1</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>7.73</v>
+        <v>0.77</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>22.03</v>
+        <v>2.2</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>18.38</v>
+        <v>1.84</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>8.1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>34.48</v>
+        <v>3.45</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>12.54</v>
+        <v>1.25</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>5.61</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>8.59</v>
+        <v>0.86</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>9.19</v>
+        <v>0.92</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>2.49</v>
+        <v>0.25</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>7.85</v>
+        <v>0.78</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>11.54</v>
+        <v>1.15</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>6.64</v>
+        <v>0.66</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="S7" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AD7" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AE7" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AF7" s="4" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AG7" s="4" t="n">
         <v>0.42</v>
       </c>
-      <c r="T7" s="4" t="n">
-        <v>115.04</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>22.63</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>15.19</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>16.85</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>6.88</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>9.66</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>31.54</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>4.22</v>
-      </c>
       <c r="AH7" s="4" t="n">
-        <v>9.289999999999999</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41523.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>14.42</v>
+        <v>1.44</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>11.05</v>
+        <v>1.11</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>31.69</v>
+        <v>3.17</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>26.35</v>
+        <v>2.63</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>11.58</v>
+        <v>1.16</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>44.24</v>
+        <v>4.42</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>17.88</v>
+        <v>1.79</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>7.99</v>
+        <v>0.8</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>12.14</v>
+        <v>1.21</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>13.02</v>
+        <v>1.3</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>13.47</v>
+        <v>1.35</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>3.61</v>
+        <v>0.36</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>11.33</v>
+        <v>1.13</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>16.46</v>
+        <v>1.65</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>9.51</v>
+        <v>0.95</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>167.68</v>
+        <v>16.77</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>32.14</v>
+        <v>3.21</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>10.47</v>
+        <v>1.05</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>21.65</v>
+        <v>2.17</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>11.54</v>
+        <v>1.15</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.51</v>
+        <v>0.15</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>21.9</v>
+        <v>2.19</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>9.390000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>8.51</v>
+        <v>0.85</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>13.68</v>
+        <v>1.37</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>40.05</v>
+        <v>4.01</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>6.04</v>
+        <v>0.6</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>13.28</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41523.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>3.41</v>
+        <v>0.34</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>2.75</v>
+        <v>0.27</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>7.69</v>
+        <v>0.77</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>6.49</v>
+        <v>0.65</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>2.88</v>
+        <v>0.29</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>16.19</v>
+        <v>1.62</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>4.49</v>
+        <v>0.45</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>2.05</v>
+        <v>0.21</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>3.14</v>
+        <v>0.31</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>3.35</v>
+        <v>0.33</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>3.28</v>
+        <v>0.33</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>0.85</v>
+        <v>0.09</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>2.7</v>
+        <v>0.27</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>4.19</v>
+        <v>0.42</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>2.35</v>
+        <v>0.24</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>36.14</v>
+        <v>3.61</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>8.300000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>2.51</v>
+        <v>0.25</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>5.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>2.99</v>
+        <v>0.3</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>7.75</v>
+        <v>0.78</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>2.34</v>
+        <v>0.23</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>2.3</v>
+        <v>0.23</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>2.49</v>
+        <v>0.25</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>3.52</v>
+        <v>0.35</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>15.11</v>
+        <v>1.51</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>1.49</v>
+        <v>0.15</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>3.3</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41523.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>17.27</v>
+        <v>1.73</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>13.14</v>
+        <v>1.31</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>37.82</v>
+        <v>3.78</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>31.38</v>
+        <v>3.14</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>13.77</v>
+        <v>1.38</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>49.59</v>
+        <v>4.96</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>21.24</v>
+        <v>2.12</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>9.5</v>
+        <v>0.95</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>14.36</v>
+        <v>1.44</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>15.41</v>
+        <v>1.54</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>16.07</v>
+        <v>1.61</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>4.33</v>
+        <v>0.43</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>13.55</v>
+        <v>1.35</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>19.56</v>
+        <v>1.96</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>11.32</v>
+        <v>1.13</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>200.88</v>
+        <v>20.09</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>38.15</v>
+        <v>3.81</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>12.51</v>
+        <v>1.25</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>25.75</v>
+        <v>2.58</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>13.68</v>
+        <v>1.37</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.79</v>
+        <v>0.18</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>24.86</v>
+        <v>2.49</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>11.17</v>
+        <v>1.12</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>10.01</v>
+        <v>1</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>11.59</v>
+        <v>1.16</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>16.2</v>
+        <v>1.62</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>44.73</v>
+        <v>4.47</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>7.2</v>
+        <v>0.72</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>15.79</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_91.xlsx
+++ b/DATA_goal/Junction_Flooding_91.xlsx
@@ -451,14 +451,14 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
@@ -468,9 +468,9 @@
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>44781.84027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.48</v>
+        <v>14.84</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.98</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.7</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.22</v>
+        <v>32.24</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.42</v>
+        <v>24.17</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.15</v>
+        <v>11.51</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.5</v>
+        <v>34.96</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.8</v>
+        <v>18.03</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.73</v>
+        <v>7.29</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.07</v>
+        <v>10.73</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.25</v>
+        <v>12.53</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.25</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.65</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.61</v>
+        <v>16.06</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.28</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.1</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.74</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>17</v>
+        <v>170.03</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.23</v>
+        <v>32.3</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.08</v>
+        <v>10.76</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.08</v>
+        <v>20.81</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.07</v>
+        <v>10.71</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.84</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.83</v>
+        <v>18.29</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.95</v>
+        <v>9.5</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.3</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.27</v>
+        <v>12.68</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.31</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.14</v>
+        <v>31.42</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.68</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.34</v>
+        <v>13.45</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.84722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.63</v>
+        <v>16.28</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.16</v>
+        <v>11.63</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.77</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.57</v>
+        <v>35.7</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.81</v>
+        <v>28.15</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.27</v>
+        <v>12.69</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.84</v>
+        <v>48.36</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.98</v>
+        <v>19.78</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.85</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="K3" s="4" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>14.15</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>15.01</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>12.78</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>17.99</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>187.24</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>23.63</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>23.87</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>14.59</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>1.25</v>
       </c>
-      <c r="L3" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.12</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>4.43</v>
+        <v>44.31</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.65</v>
+        <v>6.46</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.48</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.85416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.01</v>
+        <v>20.13</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.48</v>
+        <v>14.75</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.4</v>
+        <v>44.05</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.55</v>
+        <v>35.46</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.58</v>
+        <v>15.75</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.1</v>
+        <v>60.99</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.44</v>
+        <v>24.43</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.08</v>
+        <v>10.75</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.58</v>
+        <v>15.82</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.76</v>
+        <v>17.57</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.86</v>
+        <v>18.64</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.51</v>
+        <v>5.07</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.58</v>
+        <v>15.79</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.24</v>
+        <v>22.39</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.34</v>
+        <v>13.44</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.92</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>23.3</v>
+        <v>233.03</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.42</v>
+        <v>44.15</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.46</v>
+        <v>14.58</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.95</v>
+        <v>29.51</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.55</v>
+        <v>15.46</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.98</v>
+        <v>29.76</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.29</v>
+        <v>12.87</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.15</v>
+        <v>11.47</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.35</v>
+        <v>13.5</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.83</v>
+        <v>18.27</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.56</v>
+        <v>55.57</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.82</v>
+        <v>18.22</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.86111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.63</v>
+        <v>16.29</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.2</v>
+        <v>11.98</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.57</v>
+        <v>35.66</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.88</v>
+        <v>28.75</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.27</v>
+        <v>12.75</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.12</v>
+        <v>51.22</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.98</v>
+        <v>19.78</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.73</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.83</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.42</v>
+        <v>14.24</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.51</v>
+        <v>15.12</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.11</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.78</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.81</v>
+        <v>18.14</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.87</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>18.73</v>
+        <v>187.25</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.58</v>
+        <v>35.79</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.18</v>
+        <v>11.8</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.39</v>
+        <v>23.94</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.25</v>
+        <v>12.54</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.2</v>
+        <v>1.99</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.47</v>
+        <v>24.68</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.04</v>
+        <v>10.42</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.92</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.48</v>
+        <v>14.81</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.67</v>
+        <v>46.68</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.66</v>
+        <v>6.58</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.48</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_91.xlsx
+++ b/DATA_goal/Junction_Flooding_91.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44781.84027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>14.84</v>
+        <v>14.835</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.789999999999999</v>
+        <v>9.791</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.7</v>
+        <v>3.698</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>32.24</v>
+        <v>32.243</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>24.17</v>
+        <v>24.166</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>11.51</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>34.96</v>
+        <v>34.958</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>18.03</v>
+        <v>18.033</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>7.29</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>10.73</v>
+        <v>10.735</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12.53</v>
+        <v>12.533</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>13.25</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.74</v>
+        <v>3.739</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>11.65</v>
+        <v>11.655</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>16.06</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>10.28</v>
+        <v>10.282</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.1</v>
+        <v>3.096</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>1.74</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>170.03</v>
+        <v>170.025</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>32.3</v>
+        <v>32.298</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>10.76</v>
+        <v>10.758</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>20.81</v>
+        <v>20.812</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>10.71</v>
+        <v>10.713</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.84</v>
+        <v>2.837</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>18.29</v>
+        <v>18.288</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>9.5</v>
+        <v>9.502000000000001</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>8.641999999999999</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>10.3</v>
+        <v>10.303</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>12.68</v>
+        <v>12.679</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.31</v>
+        <v>3.311</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>31.42</v>
+        <v>31.418</v>
       </c>
       <c r="AG2" s="4" t="n">
         <v>5.68</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>13.45</v>
+        <v>13.449</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.84722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>16.28</v>
+        <v>16.281</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>11.63</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.77</v>
+        <v>1.773</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>35.7</v>
+        <v>35.701</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>28.15</v>
+        <v>28.146</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>12.69</v>
+        <v>12.694</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>48.36</v>
+        <v>48.355</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>19.78</v>
+        <v>19.779</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>8.529999999999999</v>
+        <v>8.534000000000001</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>12.47</v>
+        <v>12.469</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>14.15</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>15.01</v>
+        <v>15.007</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.11</v>
+        <v>4.106</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>12.78</v>
+        <v>12.783</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>17.99</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11.08</v>
+        <v>11.077</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.46</v>
+        <v>1.463</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.02</v>
+        <v>1.021</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>187.24</v>
+        <v>187.243</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>35.75</v>
+        <v>35.748</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>11.8</v>
+        <v>11.799</v>
       </c>
       <c r="W3" s="4" t="n">
         <v>23.63</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>12.34</v>
+        <v>12.341</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.3</v>
+        <v>2.301</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>23.87</v>
+        <v>23.871</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>10.42</v>
+        <v>10.422</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>9.384</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>11.07</v>
+        <v>11.069</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>14.59</v>
+        <v>14.586</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>1.246</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>44.31</v>
+        <v>44.315</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.46</v>
+        <v>6.459</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>14.75</v>
+        <v>14.751</v>
       </c>
     </row>
     <row r="4">
@@ -863,34 +863,34 @@
         <v>44781.85416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>20.13</v>
+        <v>20.128</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>14.75</v>
+        <v>14.753</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.43</v>
+        <v>1.434</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>44.05</v>
+        <v>44.046</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>35.46</v>
+        <v>35.464</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>15.75</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>60.99</v>
+        <v>60.987</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>24.43</v>
+        <v>24.432</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>10.75</v>
+        <v>10.753</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>15.82</v>
+        <v>15.825</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>17.57</v>
@@ -899,67 +899,67 @@
         <v>18.64</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.07</v>
+        <v>5.072</v>
       </c>
       <c r="O4" s="4" t="n">
         <v>15.79</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>22.39</v>
+        <v>22.388</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>13.44</v>
+        <v>13.443</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.04</v>
+        <v>1.036</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.92</v>
+        <v>0.922</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>233.03</v>
+        <v>233.031</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>44.15</v>
+        <v>44.155</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>14.58</v>
+        <v>14.575</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>29.51</v>
+        <v>29.511</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>15.46</v>
+        <v>15.464</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.49</v>
+        <v>2.489</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>29.76</v>
+        <v>29.762</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>12.87</v>
+        <v>12.874</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>11.47</v>
+        <v>11.473</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>13.5</v>
+        <v>13.505</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>18.27</v>
+        <v>18.266</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
         <v>55.57</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>8.119999999999999</v>
+        <v>8.121</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>18.22</v>
+        <v>18.222</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>14.75</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.86804398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>13.89</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>10.24</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>30.42</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>24.55</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.87</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>43.76</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>16.87</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.91</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>15.48</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>9.27</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>158.64</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>30.52</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>20.43</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>10.71</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>21.05</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>39.85</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>12.58</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_91.xlsx
+++ b/DATA_goal/Junction_Flooding_91.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44781.86111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>16.29</v>
+        <v>16.288</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.98</v>
+        <v>11.979</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.1</v>
+        <v>1.096</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>35.66</v>
+        <v>35.661</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>28.75</v>
+        <v>28.753</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>12.75</v>
+        <v>12.747</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>51.22</v>
+        <v>51.223</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>19.78</v>
+        <v>19.779</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.73</v>
+        <v>8.727</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>12.83</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>14.24</v>
+        <v>14.237</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>15.12</v>
+        <v>15.117</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.11</v>
+        <v>4.107</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.78</v>
+        <v>12.783</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>18.14</v>
+        <v>18.143</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.87</v>
+        <v>10.875</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.78</v>
+        <v>0.784</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.71</v>
+        <v>0.712</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>187.25</v>
+        <v>187.253</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>35.79</v>
+        <v>35.789</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.8</v>
+        <v>11.799</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>23.94</v>
+        <v>23.938</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>12.54</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.99</v>
+        <v>1.992</v>
       </c>
       <c r="Z5" s="4" t="n">
         <v>24.68</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.42</v>
+        <v>10.422</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.279999999999999</v>
+        <v>9.284000000000001</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.92</v>
+        <v>10.922</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>14.81</v>
+        <v>14.809</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.553</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>46.68</v>
+        <v>46.684</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.58</v>
+        <v>6.581</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>14.75</v>
+        <v>14.752</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.86804398148</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>30.42</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>24.55</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>10.87</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>43.76</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>16.87</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>15.48</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>158.64</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>30.52</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>20.43</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>21.05</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>39.85</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>12.58</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_91.xlsx
+++ b/DATA_goal/Junction_Flooding_91.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44781.86111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>16.288</v>
+        <v>16.29</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.979</v>
+        <v>11.98</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.096</v>
+        <v>1.1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>35.661</v>
+        <v>35.66</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>28.753</v>
+        <v>28.75</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>12.747</v>
+        <v>12.75</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>51.223</v>
+        <v>51.22</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>19.779</v>
+        <v>19.78</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.727</v>
+        <v>8.73</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>12.83</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>14.237</v>
+        <v>14.24</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>15.117</v>
+        <v>15.12</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.107</v>
+        <v>4.11</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.783</v>
+        <v>12.78</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>18.143</v>
+        <v>18.14</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.875</v>
+        <v>10.87</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.784</v>
+        <v>0.78</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.712</v>
+        <v>0.71</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>187.253</v>
+        <v>187.25</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>35.789</v>
+        <v>35.79</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.799</v>
+        <v>11.8</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>23.938</v>
+        <v>23.94</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>12.54</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.992</v>
+        <v>1.99</v>
       </c>
       <c r="Z5" s="4" t="n">
         <v>24.68</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.422</v>
+        <v>10.42</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.284000000000001</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.922</v>
+        <v>10.92</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>14.809</v>
+        <v>14.81</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.553</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>46.684</v>
+        <v>46.68</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.581</v>
+        <v>6.58</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>14.752</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.86804398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>13.89</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>10.24</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>30.42</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>24.55</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.87</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>43.76</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>16.87</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.91</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>15.48</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>9.27</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>158.64</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>30.52</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>20.43</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>10.71</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>21.05</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>39.85</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>12.58</v>
+        <v>14.75</v>
       </c>
     </row>
   </sheetData>
